--- a/source/components/com_asinustimetracking/media/report-templates/monthly-report-template-2.xlsx
+++ b/source/components/com_asinustimetracking/media/report-templates/monthly-report-template-2.xlsx
@@ -101,26 +101,26 @@
     <t>Unterschrift / Kunde:</t>
   </si>
   <si>
-    <t>Arbeitszeit o. Pause</t>
+    <t>[Mitarbeiter]</t>
+  </si>
+  <si>
+    <t>[Druckdatum]</t>
+  </si>
+  <si>
+    <t>[Personalnr.]</t>
+  </si>
+  <si>
+    <t>[00,00]</t>
+  </si>
+  <si>
+    <t>YEAR / MONTH</t>
   </si>
   <si>
     <t>Arbeitszeit
-Std. / Tag</t>
-  </si>
-  <si>
-    <t>[Mitarbeiter]</t>
-  </si>
-  <si>
-    <t>[Druckdatum]</t>
-  </si>
-  <si>
-    <t>[Personalnr.]</t>
-  </si>
-  <si>
-    <t>[00,00]</t>
-  </si>
-  <si>
-    <t>YEAR / MONTH</t>
+Ind.std.</t>
+  </si>
+  <si>
+    <t>Arbeitszeit mit Pause</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:ALS43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:M2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1144,7 +1144,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="23"/>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I1" s="23"/>
       <c r="J1" s="76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K1" s="76"/>
       <c r="L1" s="76"/>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K2" s="77"/>
       <c r="L2" s="77"/>
@@ -1238,13 +1238,13 @@
         <v>7</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J4" s="51" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="50" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L4" s="80" t="s">
         <v>17</v>
@@ -1887,7 +1887,7 @@
         <v>18</v>
       </c>
       <c r="N38" s="72" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O38" s="72"/>
       <c r="P38" s="72"/>
@@ -1909,7 +1909,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C41" s="74"/>
       <c r="D41" s="74"/>
@@ -1936,7 +1936,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C42" s="73"/>
       <c r="D42" s="73"/>
